--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -46,9 +47,10 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -71,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -83,6 +85,62 @@
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
@@ -112,12 +170,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -129,15 +187,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,146 +308,197 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="E1:M9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="1" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="8.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <f aca="false">B1+96</f>
+        <v>192</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <f aca="false">C1+96</f>
+        <v>288</v>
+      </c>
       <c r="E1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>96</v>
+        <f aca="false">D1+96</f>
+        <v>384</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <f aca="false">E1+96</f>
+        <v>480</v>
       </c>
       <c r="G1" s="2" t="n">
         <f aca="false">F1+96</f>
-        <v>192</v>
+        <v>576</v>
       </c>
       <c r="H1" s="2" t="n">
         <f aca="false">G1+96</f>
-        <v>288</v>
+        <v>672</v>
       </c>
       <c r="I1" s="2" t="n">
         <f aca="false">H1+96</f>
-        <v>384</v>
+        <v>768</v>
       </c>
       <c r="J1" s="2" t="n">
         <f aca="false">I1+96</f>
-        <v>480</v>
+        <v>864</v>
       </c>
       <c r="K1" s="2" t="n">
         <f aca="false">J1+96</f>
-        <v>576</v>
+        <v>960</v>
       </c>
       <c r="L1" s="2" t="n">
         <f aca="false">K1+96</f>
-        <v>672</v>
-      </c>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="3" t="n">
+        <v>1056</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <f aca="false">L1+96</f>
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>96</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="6" t="n">
-        <f aca="false">F1+96</f>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
+        <f aca="false">B1+96</f>
         <v>192</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="6" t="n">
-        <f aca="false">E3+96</f>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="n">
+        <f aca="false">A3+96</f>
         <v>288</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="6" t="n">
-        <f aca="false">E4+96</f>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <f aca="false">A4+96</f>
         <v>384</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="6" t="n">
-        <f aca="false">E5+96</f>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="n">
+        <f aca="false">A5+96</f>
         <v>480</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="6" t="n">
-        <f aca="false">E6+96</f>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <f aca="false">A6+96</f>
         <v>576</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="6" t="n">
-        <f aca="false">E7+96</f>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <f aca="false">A7+96</f>
         <v>672</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -17,6 +17,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">Console panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gameplay panel</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +64,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +83,12 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
@@ -170,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +216,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,6 +240,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +261,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,8 +355,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -383,124 +428,132 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="9" t="n">
         <f aca="false">B1+96</f>
         <v>192</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="9" t="n">
         <f aca="false">A3+96</f>
         <v>288</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="9" t="n">
         <f aca="false">A4+96</f>
         <v>384</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="9" t="n">
         <f aca="false">A5+96</f>
         <v>480</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="9" t="n">
         <f aca="false">A6+96</f>
         <v>576</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="9" t="n">
         <f aca="false">A7+96</f>
         <v>672</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14"/>
+      <c r="A9" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="C5:G5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">Console panel</t>
   </si>
   <si>
     <t xml:space="preserve">Gameplay panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info Console panel</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,14 +264,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,7 +351,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -504,11 +499,11 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="n">
@@ -522,8 +517,10 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>2</v>
+      </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
@@ -540,14 +537,14 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">room A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room D</t>
+  </si>
   <si>
     <t xml:space="preserve">Console panel</t>
   </si>
@@ -190,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,11 +223,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,27 +243,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -264,10 +292,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -348,10 +372,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -361,195 +385,258 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="n">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="n">
+      <c r="C1" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="n">
-        <f aca="false">B1+96</f>
+      <c r="D1" s="3" t="n">
+        <f aca="false">C1+96</f>
         <v>192</v>
       </c>
-      <c r="D1" s="2" t="n">
-        <f aca="false">C1+96</f>
+      <c r="E1" s="3" t="n">
+        <f aca="false">D1+96</f>
         <v>288</v>
       </c>
-      <c r="E1" s="2" t="n">
-        <f aca="false">D1+96</f>
+      <c r="F1" s="3" t="n">
+        <f aca="false">E1+96</f>
         <v>384</v>
       </c>
-      <c r="F1" s="2" t="n">
-        <f aca="false">E1+96</f>
+      <c r="G1" s="3" t="n">
+        <f aca="false">F1+96</f>
         <v>480</v>
       </c>
-      <c r="G1" s="2" t="n">
-        <f aca="false">F1+96</f>
+      <c r="H1" s="3" t="n">
+        <f aca="false">G1+96</f>
         <v>576</v>
       </c>
-      <c r="H1" s="2" t="n">
-        <f aca="false">G1+96</f>
+      <c r="I1" s="3" t="n">
+        <f aca="false">H1+96</f>
         <v>672</v>
       </c>
-      <c r="I1" s="2" t="n">
-        <f aca="false">H1+96</f>
+      <c r="J1" s="3" t="n">
+        <f aca="false">I1+96</f>
         <v>768</v>
       </c>
-      <c r="J1" s="2" t="n">
-        <f aca="false">I1+96</f>
+      <c r="K1" s="3" t="n">
+        <f aca="false">J1+96</f>
         <v>864</v>
       </c>
-      <c r="K1" s="2" t="n">
-        <f aca="false">J1+96</f>
+      <c r="L1" s="3" t="n">
+        <f aca="false">K1+96</f>
         <v>960</v>
       </c>
-      <c r="L1" s="2" t="n">
-        <f aca="false">K1+96</f>
+      <c r="M1" s="3" t="n">
+        <f aca="false">L1+96</f>
         <v>1056</v>
       </c>
-      <c r="M1" s="2" t="n">
-        <f aca="false">L1+96</f>
+      <c r="N1" s="3" t="n">
+        <f aca="false">M1+96</f>
         <v>1152</v>
+      </c>
+      <c r="O1" s="3" t="n">
+        <f aca="false">N1+96</f>
+        <v>1248</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <f aca="false">B1+96</f>
+      <c r="A3" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <f aca="false">C1+96</f>
         <v>192</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-    </row>
-    <row r="4" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
-        <f aca="false">A3+96</f>
+      <c r="B4" s="11"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
+        <f aca="false">A4+96</f>
         <v>288</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <f aca="false">A4+96</f>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <f aca="false">A5+96</f>
         <v>384</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
-        <f aca="false">A5+96</f>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <f aca="false">A6+96</f>
         <v>480</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <f aca="false">A6+96</f>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
+        <f aca="false">A7+96</f>
         <v>576</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
-        <f aca="false">A7+96</f>
+      <c r="B8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <f aca="false">A8+96</f>
         <v>672</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <f aca="false">A9+96</f>
+        <v>768</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">room A</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Info Console panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redzone</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,11 +104,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF660066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF0041"/>
         <bgColor rgb="FF800080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -121,6 +130,20 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
       <top style="hair"/>
@@ -128,20 +151,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
       <top/>
@@ -150,6 +159,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
       <right style="hair"/>
       <top/>
       <bottom/>
@@ -202,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,7 +235,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,11 +247,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -243,55 +259,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +370,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
@@ -375,7 +411,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,56 +485,56 @@
         <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="10"/>
+      <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="n">
         <f aca="false">C1+96</f>
         <v>192</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19" t="s">
         <v>4</v>
@@ -507,91 +543,91 @@
       <c r="L4" s="19"/>
       <c r="M4" s="19"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="n">
         <f aca="false">A4+96</f>
         <v>288</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="10"/>
+      <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="n">
         <f aca="false">A5+96</f>
         <v>384</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="n">
         <f aca="false">A6+96</f>
         <v>480</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="n">
         <f aca="false">A7+96</f>
         <v>576</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="10"/>
+      <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="46.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="n">
@@ -606,32 +642,34 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="10"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="46.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="n">
         <f aca="false">A9+96</f>
         <v>768</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/res/floor_maps/grid pixel layout.xlsx
+++ b/src/res/floor_maps/grid pixel layout.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.3" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
